--- a/data_processed/20250826/BTCUSDQMOMENT_20250826.xlsx
+++ b/data_processed/20250826/BTCUSDQMOMENT_20250826.xlsx
@@ -1118,10 +1118,18 @@
       <c r="H18" t="n">
         <v>7.471548015969184</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.2019572604821628</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1159468389252036</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.07503651310250715</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.189568379381487</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250826/BTCUSDQMOMENT_20250826.xlsx
+++ b/data_processed/20250826/BTCUSDQMOMENT_20250826.xlsx
@@ -620,19 +620,19 @@
         <v>0.2575342465753425</v>
       </c>
       <c r="D5" t="n">
-        <v>113544.2320903444</v>
+        <v>113498.3840899606</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009501555554163809</v>
+        <v>0.007218919331115436</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1963369754297338</v>
+        <v>0.206029345518128</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5497117427997255</v>
+        <v>-0.854175765390691</v>
       </c>
       <c r="H5" t="n">
-        <v>5.763739297731605</v>
+        <v>7.71439265675782</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.3342465753424658</v>
       </c>
       <c r="D6" t="n">
-        <v>114128.4561815995</v>
+        <v>114100.7878876122</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.002009433864911065</v>
+        <v>-0.003112932297681522</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2316522648276584</v>
+        <v>0.2361768851995746</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.188616477990314</v>
+        <v>-1.314695259581175</v>
       </c>
       <c r="H6" t="n">
-        <v>9.188257202501955</v>
+        <v>10.27327914179687</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.4301369863013699</v>
       </c>
       <c r="D7" t="n">
-        <v>115555.1993653383</v>
+        <v>115442.6461201255</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00452396854342516</v>
+        <v>-0.008375299573469348</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2431888563687406</v>
+        <v>0.2557524574072488</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9715002129433412</v>
+        <v>-1.185440944045737</v>
       </c>
       <c r="H7" t="n">
-        <v>6.260003647577064</v>
+        <v>7.483636105461293</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.7561643835616438</v>
       </c>
       <c r="D8" t="n">
-        <v>115839.7918304358</v>
+        <v>115839.570541657</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02836401818799655</v>
+        <v>-0.02802449743433663</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2170316153108648</v>
+        <v>0.2146091413188441</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.256671993640616</v>
+        <v>-1.158970142103203</v>
       </c>
       <c r="H8" t="n">
-        <v>8.955430861183173</v>
+        <v>8.012766176034971</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8328767123287671</v>
       </c>
       <c r="D9" t="n">
-        <v>117480.3042059308</v>
+        <v>117477.4342003953</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05223271191788823</v>
+        <v>-0.05307724766613111</v>
       </c>
       <c r="F9" t="n">
-        <v>0.306985175442943</v>
+        <v>0.312523874968035</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.360161334627068</v>
+        <v>-1.473725736937873</v>
       </c>
       <c r="H9" t="n">
-        <v>8.800544022637427</v>
+        <v>9.686048900786094</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.082191780821918</v>
       </c>
       <c r="D10" t="n">
-        <v>119391.2879876443</v>
+        <v>118859.4549602363</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08525795827974637</v>
+        <v>-0.1012159493671696</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3904586768098961</v>
+        <v>0.4454089434574951</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.537149726118259</v>
+        <v>-1.886265077413245</v>
       </c>
       <c r="H10" t="n">
-        <v>7.400296780535466</v>
+        <v>9.435332209698778</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -978,19 +978,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D15" t="n">
-        <v>111892.6937748841</v>
+        <v>111931.971017001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08683504515274175</v>
+        <v>0.09069927527710707</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1795123770277886</v>
+        <v>0.1539168340878241</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.428609556527672</v>
+        <v>-0.8724840120281814</v>
       </c>
       <c r="H15" t="n">
-        <v>26.98893262483021</v>
+        <v>9.010577648849804</v>
       </c>
       <c r="I15" t="n">
         <v>0.01593564374330777</v>
@@ -1146,19 +1146,19 @@
         <v>0.06575342465753424</v>
       </c>
       <c r="D19" t="n">
-        <v>111948.0409164738</v>
+        <v>112084.8008748879</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0336725104089835</v>
+        <v>0.04092912082759503</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2013150424994688</v>
+        <v>0.1758957856638458</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.441729504838185</v>
+        <v>-0.5795059014213836</v>
       </c>
       <c r="H19" t="n">
-        <v>12.89273168848495</v>
+        <v>6.44729959438628</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1180,19 +1180,19 @@
         <v>0.1041095890410959</v>
       </c>
       <c r="D20" t="n">
-        <v>112802.9261557879</v>
+        <v>113078.0937560457</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03888517931982245</v>
+        <v>0.05065033281662566</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2023602426692086</v>
+        <v>0.1676756273829387</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.503501497810408</v>
+        <v>-0.5227636346720143</v>
       </c>
       <c r="H20" t="n">
-        <v>11.74595232748234</v>
+        <v>5.465895759083472</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>

--- a/data_processed/20250826/BTCUSDQMOMENT_20250826.xlsx
+++ b/data_processed/20250826/BTCUSDQMOMENT_20250826.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>8.64098573183959</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.4355154017148586</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.189438398179798</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1237630042514426</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.995618561048226</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1160,10 +1168,18 @@
       <c r="H19" t="n">
         <v>6.44729959438628</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.420325230121112</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2041361755087643</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.05236788654954026</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.918517225511694</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250826/BTCUSDQMOMENT_20250826.xlsx
+++ b/data_processed/20250826/BTCUSDQMOMENT_20250826.xlsx
@@ -1210,10 +1210,18 @@
       <c r="H20" t="n">
         <v>5.465895759083472</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.4954102784692063</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2573349478400102</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.276846350178154</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.488042276717461</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250826/BTCUSDQMOMENT_20250826.xlsx
+++ b/data_processed/20250826/BTCUSDQMOMENT_20250826.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>13.35867396994571</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.5344404915603791</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5197070283324361</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7419874107148443</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.074251699119845</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
